--- a/Vision/test_folder/1.xlsx
+++ b/Vision/test_folder/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\github graduate\Valkyrie\Vision\test_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6FFA03-1B0F-4685-AF13-07BD7158F500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75534442-B7C8-46CE-8166-76E88A41E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="290" windowWidth="38620" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6980" yWindow="5500" windowWidth="28800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
